--- a/files/ussd.xlsx
+++ b/files/ussd.xlsx
@@ -11,18 +11,123 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$41</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>1302031810080481</t>
+  </si>
+  <si>
+    <t>2240832442152280</t>
+  </si>
+  <si>
+    <t>2181360202490611</t>
+  </si>
+  <si>
+    <t>1041310830030630</t>
+  </si>
+  <si>
+    <t>2060690270220752</t>
+  </si>
+  <si>
+    <t>1700621810760042</t>
+  </si>
+  <si>
+    <t>0521571182280311</t>
+  </si>
+  <si>
+    <t>0080482460960842</t>
+  </si>
+  <si>
+    <t>2261050080922460</t>
+  </si>
+  <si>
+    <t>1402071641360791</t>
+  </si>
+  <si>
+    <t>1361470380231382</t>
+  </si>
+  <si>
+    <t>0412020790940930</t>
+  </si>
+  <si>
+    <t>1681230922502510</t>
+  </si>
+  <si>
+    <t>1652371291610352</t>
+  </si>
+  <si>
+    <t>0150401722231552</t>
+  </si>
+  <si>
+    <t>2071790271210390</t>
+  </si>
+  <si>
+    <t>1551900282450940</t>
+  </si>
+  <si>
+    <t>1731080711901932</t>
+  </si>
+  <si>
+    <t>0081280911140590</t>
+  </si>
+  <si>
+    <t>0822520792241730</t>
+  </si>
+  <si>
+    <t>0540082512172171</t>
+  </si>
+  <si>
+    <t>1060140581390361</t>
+  </si>
+  <si>
+    <t>1830230370480292</t>
+  </si>
+  <si>
+    <t>2381191980102512</t>
+  </si>
+  <si>
+    <t>1820870011240490</t>
+  </si>
+  <si>
+    <t>1432191892300902</t>
+  </si>
+  <si>
+    <t>0910721590802462</t>
+  </si>
+  <si>
+    <t>2292422330310700</t>
+  </si>
+  <si>
+    <t>0792130360280662</t>
+  </si>
+  <si>
+    <t>0860280290731292</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,9 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -350,258 +458,470 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1302031810080480</v>
-      </c>
-      <c r="B1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2240832442152280</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4200</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5400</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>800</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4400</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3400</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2600</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1200</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2181360202490610</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1041310830030630</v>
-      </c>
-      <c r="B4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2060690270220750</v>
-      </c>
-      <c r="B5">
-        <v>3750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1700621810760040</v>
-      </c>
-      <c r="B6">
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>521571182280311</v>
-      </c>
-      <c r="B7">
-        <v>5450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>80482460960842</v>
-      </c>
-      <c r="B8">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2261050080922460</v>
-      </c>
-      <c r="B9">
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1402071641360790</v>
-      </c>
-      <c r="B10">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1361470380231380</v>
-      </c>
-      <c r="B11">
-        <v>8850</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>412020790940930</v>
-      </c>
-      <c r="B12">
-        <v>9700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>1681230922502510</v>
-      </c>
-      <c r="B13">
-        <v>10550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>1652371291610350</v>
-      </c>
-      <c r="B14">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>150401722231552</v>
-      </c>
-      <c r="B15">
-        <v>12250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2071790271210390</v>
-      </c>
-      <c r="B16">
-        <v>13100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1551900282450940</v>
-      </c>
-      <c r="B17">
-        <v>13950</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1731080711901930</v>
-      </c>
-      <c r="B18">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>81280911140590</v>
-      </c>
-      <c r="B19">
-        <v>15650</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>822520792241730</v>
-      </c>
-      <c r="B20">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>540082512172171</v>
-      </c>
-      <c r="B21">
-        <v>17350</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1060140581390360</v>
-      </c>
-      <c r="B22">
-        <v>18200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1830230370480290</v>
-      </c>
-      <c r="B23">
-        <v>19050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2381191980102510</v>
-      </c>
-      <c r="B24">
-        <v>19900</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1820870011240490</v>
-      </c>
-      <c r="B25">
-        <v>20750</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1432191892300900</v>
-      </c>
-      <c r="B26">
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>910721590802462</v>
-      </c>
-      <c r="B27">
-        <v>22450</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2292422330310700</v>
-      </c>
-      <c r="B28">
-        <v>23300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>792130360280662</v>
-      </c>
-      <c r="B29">
-        <v>24150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>860280290731292</v>
-      </c>
-      <c r="B30">
-        <v>25000</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3200</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>600</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>400</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5600</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A1:B41">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/files/ussd.xlsx
+++ b/files/ussd.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1">
-        <v>1600</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -487,7 +487,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="1">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -499,7 +499,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -511,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1">
-        <v>2400</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -523,7 +523,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -535,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="1">
-        <v>4200</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -547,7 +547,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>5800</v>
+        <v>300</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -559,7 +559,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -571,7 +571,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1">
-        <v>6000</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -583,7 +583,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="1">
-        <v>5400</v>
+        <v>1000</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -607,7 +607,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>4400</v>
+        <v>1000</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -643,7 +643,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>5200</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -667,7 +667,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>3400</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -679,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>2800</v>
+        <v>1000</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -691,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
-        <v>2600</v>
+        <v>300</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -715,7 +715,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -727,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -739,7 +739,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>4600</v>
+        <v>300</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="1">
-        <v>3200</v>
+        <v>300</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -799,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1">
-        <v>1800</v>
+        <v>1000</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -811,7 +811,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>5600</v>
+        <v>300</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -823,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <v>4800</v>
+        <v>1000</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>

--- a/files/ussd.xlsx
+++ b/files/ussd.xlsx
@@ -11,33 +11,106 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$41</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">со стр 3
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>1302031810080481</t>
+  </si>
+  <si>
+    <t>2240832442152280</t>
+  </si>
+  <si>
+    <t>2181360202490611</t>
+  </si>
+  <si>
+    <t>1041310830030630</t>
+  </si>
+  <si>
+    <t>2060690270220752</t>
+  </si>
+  <si>
+    <t>1700621810760042</t>
+  </si>
+  <si>
+    <t>0521571182280311</t>
+  </si>
+  <si>
+    <t>0080482460960842</t>
+  </si>
+  <si>
+    <t>2261050080922460</t>
+  </si>
+  <si>
+    <t>1402071641360791</t>
+  </si>
+  <si>
+    <t>1361470380231382</t>
+  </si>
+  <si>
+    <t>0412020790940930</t>
+  </si>
+  <si>
+    <t>1681230922502510</t>
+  </si>
+  <si>
+    <t>1652371291610352</t>
+  </si>
+  <si>
+    <t>0150401722231552</t>
+  </si>
+  <si>
+    <t>2071790271210390</t>
+  </si>
+  <si>
+    <t>1551900282450940</t>
+  </si>
+  <si>
+    <t>1731080711901932</t>
+  </si>
+  <si>
+    <t>0081280911140590</t>
+  </si>
+  <si>
+    <t>0822520792241730</t>
+  </si>
+  <si>
+    <t>0540082512172171</t>
+  </si>
+  <si>
+    <t>1060140581390361</t>
+  </si>
+  <si>
+    <t>1830230370480292</t>
+  </si>
+  <si>
+    <t>2381191980102512</t>
+  </si>
+  <si>
+    <t>1820870011240490</t>
+  </si>
+  <si>
+    <t>1432191892300902</t>
+  </si>
+  <si>
+    <t>0910721590802462</t>
+  </si>
+  <si>
+    <t>2292422330310700</t>
+  </si>
+  <si>
+    <t>0792130360280662</t>
+  </si>
+  <si>
+    <t>0860280290731292</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51,11 +124,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +153,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,135 +457,473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>6060922053</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6060922046</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>6060921705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6060922056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6060922074</v>
-      </c>
-      <c r="B5">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6060921611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6060921603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6060921607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6060921629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>60609222222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1">
+        <v>300</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>300</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1">
+        <v>300</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1">
+        <v>300</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>300</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>300</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>300</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>300</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
+        <v>300</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>300</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>300</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A1:B41">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
